--- a/data/summary_22062010.xlsx
+++ b/data/summary_22062010.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,209 +406,233 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>23.04175824175824</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>959.3065934065934</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.4108387096774194</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4090516129032258</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4.018559486283845</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.0003517902676291593</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21.7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>20.69340659340659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>23.14615384615385</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>959.3109890109889</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.4975580645161291</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.4953290322580645</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4.59104148050038</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0001655952371147729</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>20.84175824175824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>23.21735537190083</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>959.301652892562</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.3813639344262295</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.3772524590163934</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3.948086156604192</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.0001262352208569366</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>21.34297520661157</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20.83140495867769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>23.31322314049587</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>959.2214876033058</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.506988524590164</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4518918032786885</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4.087424669674899</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2.362870585367652e-017</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21.3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>23.40132450331126</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>959.1920529801325</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.4748131868131868</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.4045021978021978</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4.296641968064649</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-9.426323219425323e-018</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>21.3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>21.21523178807947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>23.52185430463576</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>959.1993377483444</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.5019362637362638</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.5310417582417583</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.92145608516048</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-9.422564537584762e-018</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>21.29337748344371</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>21.14900662251656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>23.7475138121547</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>959.1574585635359</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4827793388429752</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4706132231404959</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3.907327320820378</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3.902879439263795e-005</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>21.29447513812155</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>21.17237569060773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>23.90165745856353</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>959.1138121546961</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.521907438016529</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.5268611570247934</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4.25379254761951</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5.762566043783292e-005</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21.3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>21.35359116022099</v>
       </c>
     </row>
